--- a/data/token/TRX.xlsx
+++ b/data/token/TRX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="995">
   <si>
     <t>Date</t>
   </si>
@@ -1622,6 +1622,1383 @@
   </si>
   <si>
     <t>2021-06-21</t>
+  </si>
+  <si>
+    <t>2024-11-12</t>
+  </si>
+  <si>
+    <t>2024-09-30</t>
+  </si>
+  <si>
+    <t>2024-09-24</t>
+  </si>
+  <si>
+    <t>2024-09-29</t>
+  </si>
+  <si>
+    <t>2022-11-02</t>
+  </si>
+  <si>
+    <t>2022-08-04</t>
+  </si>
+  <si>
+    <t>2024-02-17</t>
+  </si>
+  <si>
+    <t>2024-03-25</t>
+  </si>
+  <si>
+    <t>2024-03-08</t>
+  </si>
+  <si>
+    <t>2024-02-19</t>
+  </si>
+  <si>
+    <t>2024-02-18</t>
+  </si>
+  <si>
+    <t>2024-02-13</t>
+  </si>
+  <si>
+    <t>2024-02-12</t>
+  </si>
+  <si>
+    <t>2024-02-11</t>
+  </si>
+  <si>
+    <t>2024-02-09</t>
+  </si>
+  <si>
+    <t>2024-02-08</t>
+  </si>
+  <si>
+    <t>2024-02-07</t>
+  </si>
+  <si>
+    <t>2024-02-05</t>
+  </si>
+  <si>
+    <t>2024-02-04</t>
+  </si>
+  <si>
+    <t>2024-02-03</t>
+  </si>
+  <si>
+    <t>2024-02-02</t>
+  </si>
+  <si>
+    <t>2024-02-01</t>
+  </si>
+  <si>
+    <t>2024-01-30</t>
+  </si>
+  <si>
+    <t>2024-01-29</t>
+  </si>
+  <si>
+    <t>2024-01-28</t>
+  </si>
+  <si>
+    <t>2024-01-27</t>
+  </si>
+  <si>
+    <t>2024-01-26</t>
+  </si>
+  <si>
+    <t>2024-01-25</t>
+  </si>
+  <si>
+    <t>2024-01-21</t>
+  </si>
+  <si>
+    <t>2024-01-20</t>
+  </si>
+  <si>
+    <t>2024-01-17</t>
+  </si>
+  <si>
+    <t>2024-01-15</t>
+  </si>
+  <si>
+    <t>2024-01-14</t>
+  </si>
+  <si>
+    <t>2024-01-13</t>
+  </si>
+  <si>
+    <t>2024-01-10</t>
+  </si>
+  <si>
+    <t>2024-01-09</t>
+  </si>
+  <si>
+    <t>2024-01-08</t>
+  </si>
+  <si>
+    <t>2024-01-07</t>
+  </si>
+  <si>
+    <t>2024-01-06</t>
+  </si>
+  <si>
+    <t>2024-01-02</t>
+  </si>
+  <si>
+    <t>2024-01-01</t>
+  </si>
+  <si>
+    <t>2023-12-26</t>
+  </si>
+  <si>
+    <t>2023-12-25</t>
+  </si>
+  <si>
+    <t>2023-12-24</t>
+  </si>
+  <si>
+    <t>2023-12-23</t>
+  </si>
+  <si>
+    <t>2023-12-22</t>
+  </si>
+  <si>
+    <t>2023-12-20</t>
+  </si>
+  <si>
+    <t>2023-12-19</t>
+  </si>
+  <si>
+    <t>2023-12-18</t>
+  </si>
+  <si>
+    <t>2023-12-17</t>
+  </si>
+  <si>
+    <t>2023-12-15</t>
+  </si>
+  <si>
+    <t>2023-12-14</t>
+  </si>
+  <si>
+    <t>2023-12-13</t>
+  </si>
+  <si>
+    <t>2023-12-12</t>
+  </si>
+  <si>
+    <t>2023-12-11</t>
+  </si>
+  <si>
+    <t>2023-12-10</t>
+  </si>
+  <si>
+    <t>2023-12-08</t>
+  </si>
+  <si>
+    <t>2023-12-07</t>
+  </si>
+  <si>
+    <t>2023-12-06</t>
+  </si>
+  <si>
+    <t>2023-12-05</t>
+  </si>
+  <si>
+    <t>2023-12-04</t>
+  </si>
+  <si>
+    <t>2023-12-03</t>
+  </si>
+  <si>
+    <t>2023-12-02</t>
+  </si>
+  <si>
+    <t>2023-11-30</t>
+  </si>
+  <si>
+    <t>2023-11-17</t>
+  </si>
+  <si>
+    <t>2023-11-16</t>
+  </si>
+  <si>
+    <t>2023-11-14</t>
+  </si>
+  <si>
+    <t>2023-11-13</t>
+  </si>
+  <si>
+    <t>2023-11-12</t>
+  </si>
+  <si>
+    <t>2023-11-11</t>
+  </si>
+  <si>
+    <t>2023-11-09</t>
+  </si>
+  <si>
+    <t>2023-11-08</t>
+  </si>
+  <si>
+    <t>2023-11-07</t>
+  </si>
+  <si>
+    <t>2023-11-06</t>
+  </si>
+  <si>
+    <t>2023-11-04</t>
+  </si>
+  <si>
+    <t>2023-11-03</t>
+  </si>
+  <si>
+    <t>2023-11-02</t>
+  </si>
+  <si>
+    <t>2023-11-01</t>
+  </si>
+  <si>
+    <t>2023-10-31</t>
+  </si>
+  <si>
+    <t>2023-10-30</t>
+  </si>
+  <si>
+    <t>2023-10-29</t>
+  </si>
+  <si>
+    <t>2023-10-28</t>
+  </si>
+  <si>
+    <t>2023-10-27</t>
+  </si>
+  <si>
+    <t>2023-10-26</t>
+  </si>
+  <si>
+    <t>2023-10-24</t>
+  </si>
+  <si>
+    <t>2023-10-23</t>
+  </si>
+  <si>
+    <t>2023-10-22</t>
+  </si>
+  <si>
+    <t>2023-10-21</t>
+  </si>
+  <si>
+    <t>2023-10-20</t>
+  </si>
+  <si>
+    <t>2023-10-19</t>
+  </si>
+  <si>
+    <t>2023-10-18</t>
+  </si>
+  <si>
+    <t>2023-10-15</t>
+  </si>
+  <si>
+    <t>2023-10-14</t>
+  </si>
+  <si>
+    <t>2023-10-13</t>
+  </si>
+  <si>
+    <t>2023-10-11</t>
+  </si>
+  <si>
+    <t>2023-10-09</t>
+  </si>
+  <si>
+    <t>2023-10-08</t>
+  </si>
+  <si>
+    <t>2023-10-05</t>
+  </si>
+  <si>
+    <t>2023-10-03</t>
+  </si>
+  <si>
+    <t>2023-10-02</t>
+  </si>
+  <si>
+    <t>2023-10-01</t>
+  </si>
+  <si>
+    <t>2023-09-30</t>
+  </si>
+  <si>
+    <t>2023-09-27</t>
+  </si>
+  <si>
+    <t>2023-09-25</t>
+  </si>
+  <si>
+    <t>2023-09-24</t>
+  </si>
+  <si>
+    <t>2023-09-23</t>
+  </si>
+  <si>
+    <t>2023-09-22</t>
+  </si>
+  <si>
+    <t>2023-09-20</t>
+  </si>
+  <si>
+    <t>2023-09-19</t>
+  </si>
+  <si>
+    <t>2023-09-18</t>
+  </si>
+  <si>
+    <t>2023-09-17</t>
+  </si>
+  <si>
+    <t>2023-09-13</t>
+  </si>
+  <si>
+    <t>2023-09-11</t>
+  </si>
+  <si>
+    <t>2023-09-10</t>
+  </si>
+  <si>
+    <t>2023-09-09</t>
+  </si>
+  <si>
+    <t>2023-09-06</t>
+  </si>
+  <si>
+    <t>2023-09-05</t>
+  </si>
+  <si>
+    <t>2023-09-04</t>
+  </si>
+  <si>
+    <t>2023-09-03</t>
+  </si>
+  <si>
+    <t>2023-09-02</t>
+  </si>
+  <si>
+    <t>2023-09-01</t>
+  </si>
+  <si>
+    <t>2023-08-31</t>
+  </si>
+  <si>
+    <t>2023-08-30</t>
+  </si>
+  <si>
+    <t>2023-08-28</t>
+  </si>
+  <si>
+    <t>2023-08-27</t>
+  </si>
+  <si>
+    <t>2023-08-26</t>
+  </si>
+  <si>
+    <t>2023-08-23</t>
+  </si>
+  <si>
+    <t>2023-08-22</t>
+  </si>
+  <si>
+    <t>2023-08-21</t>
+  </si>
+  <si>
+    <t>2023-08-20</t>
+  </si>
+  <si>
+    <t>2023-08-17</t>
+  </si>
+  <si>
+    <t>2023-08-16</t>
+  </si>
+  <si>
+    <t>2023-08-14</t>
+  </si>
+  <si>
+    <t>2023-08-12</t>
+  </si>
+  <si>
+    <t>2023-08-11</t>
+  </si>
+  <si>
+    <t>2023-08-10</t>
+  </si>
+  <si>
+    <t>2023-08-08</t>
+  </si>
+  <si>
+    <t>2023-08-07</t>
+  </si>
+  <si>
+    <t>2023-08-06</t>
+  </si>
+  <si>
+    <t>2023-08-04</t>
+  </si>
+  <si>
+    <t>2023-08-03</t>
+  </si>
+  <si>
+    <t>2023-08-02</t>
+  </si>
+  <si>
+    <t>2023-08-01</t>
+  </si>
+  <si>
+    <t>2023-07-30</t>
+  </si>
+  <si>
+    <t>2023-07-29</t>
+  </si>
+  <si>
+    <t>2023-07-27</t>
+  </si>
+  <si>
+    <t>2023-07-26</t>
+  </si>
+  <si>
+    <t>2023-07-25</t>
+  </si>
+  <si>
+    <t>2023-07-24</t>
+  </si>
+  <si>
+    <t>2023-07-23</t>
+  </si>
+  <si>
+    <t>2023-07-18</t>
+  </si>
+  <si>
+    <t>2023-07-17</t>
+  </si>
+  <si>
+    <t>2023-07-15</t>
+  </si>
+  <si>
+    <t>2023-07-13</t>
+  </si>
+  <si>
+    <t>2023-07-10</t>
+  </si>
+  <si>
+    <t>2023-07-08</t>
+  </si>
+  <si>
+    <t>2023-07-07</t>
+  </si>
+  <si>
+    <t>2023-07-06</t>
+  </si>
+  <si>
+    <t>2023-07-05</t>
+  </si>
+  <si>
+    <t>2023-07-04</t>
+  </si>
+  <si>
+    <t>2023-07-03</t>
+  </si>
+  <si>
+    <t>2023-07-02</t>
+  </si>
+  <si>
+    <t>2023-07-01</t>
+  </si>
+  <si>
+    <t>2023-06-30</t>
+  </si>
+  <si>
+    <t>2023-06-29</t>
+  </si>
+  <si>
+    <t>2023-06-28</t>
+  </si>
+  <si>
+    <t>2023-06-26</t>
+  </si>
+  <si>
+    <t>2023-06-25</t>
+  </si>
+  <si>
+    <t>2023-06-24</t>
+  </si>
+  <si>
+    <t>2023-06-23</t>
+  </si>
+  <si>
+    <t>2023-06-22</t>
+  </si>
+  <si>
+    <t>2023-06-20</t>
+  </si>
+  <si>
+    <t>2023-06-19</t>
+  </si>
+  <si>
+    <t>2023-06-18</t>
+  </si>
+  <si>
+    <t>2023-06-17</t>
+  </si>
+  <si>
+    <t>2023-06-16</t>
+  </si>
+  <si>
+    <t>2023-06-13</t>
+  </si>
+  <si>
+    <t>2023-06-12</t>
+  </si>
+  <si>
+    <t>2023-06-10</t>
+  </si>
+  <si>
+    <t>2023-06-09</t>
+  </si>
+  <si>
+    <t>2023-06-08</t>
+  </si>
+  <si>
+    <t>2023-06-07</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>2023-06-04</t>
+  </si>
+  <si>
+    <t>2023-06-02</t>
+  </si>
+  <si>
+    <t>2023-06-01</t>
+  </si>
+  <si>
+    <t>2023-05-31</t>
+  </si>
+  <si>
+    <t>2023-05-29</t>
+  </si>
+  <si>
+    <t>2023-05-25</t>
+  </si>
+  <si>
+    <t>2023-04-15</t>
+  </si>
+  <si>
+    <t>2024-03-23</t>
+  </si>
+  <si>
+    <t>2024-03-17</t>
+  </si>
+  <si>
+    <t>2023-03-26</t>
+  </si>
+  <si>
+    <t>2023-03-12</t>
+  </si>
+  <si>
+    <t>2023-03-11</t>
+  </si>
+  <si>
+    <t>2023-02-25</t>
+  </si>
+  <si>
+    <t>2023-02-21</t>
+  </si>
+  <si>
+    <t>2023-02-20</t>
+  </si>
+  <si>
+    <t>2023-02-19</t>
+  </si>
+  <si>
+    <t>2023-02-13</t>
+  </si>
+  <si>
+    <t>2023-02-12</t>
+  </si>
+  <si>
+    <t>2023-02-11</t>
+  </si>
+  <si>
+    <t>2023-02-07</t>
+  </si>
+  <si>
+    <t>2023-02-03</t>
+  </si>
+  <si>
+    <t>2023-02-01</t>
+  </si>
+  <si>
+    <t>2023-01-28</t>
+  </si>
+  <si>
+    <t>2023-01-23</t>
+  </si>
+  <si>
+    <t>2023-01-13</t>
+  </si>
+  <si>
+    <t>2023-01-11</t>
+  </si>
+  <si>
+    <t>2023-01-05</t>
+  </si>
+  <si>
+    <t>2023-01-02</t>
+  </si>
+  <si>
+    <t>2023-01-01</t>
+  </si>
+  <si>
+    <t>2022-12-29</t>
+  </si>
+  <si>
+    <t>2022-12-28</t>
+  </si>
+  <si>
+    <t>2022-12-26</t>
+  </si>
+  <si>
+    <t>2022-12-25</t>
+  </si>
+  <si>
+    <t>2022-12-22</t>
+  </si>
+  <si>
+    <t>2022-12-21</t>
+  </si>
+  <si>
+    <t>2022-12-09</t>
+  </si>
+  <si>
+    <t>2022-12-08</t>
+  </si>
+  <si>
+    <t>2022-12-03</t>
+  </si>
+  <si>
+    <t>2022-11-11</t>
+  </si>
+  <si>
+    <t>2022-10-03</t>
+  </si>
+  <si>
+    <t>2022-09-25</t>
+  </si>
+  <si>
+    <t>2024-02-10</t>
+  </si>
+  <si>
+    <t>2023-04-07</t>
+  </si>
+  <si>
+    <t>2023-04-05</t>
+  </si>
+  <si>
+    <t>2023-03-24</t>
+  </si>
+  <si>
+    <t>2023-03-23</t>
+  </si>
+  <si>
+    <t>2023-03-20</t>
+  </si>
+  <si>
+    <t>2022-09-15</t>
+  </si>
+  <si>
+    <t>2022-09-12</t>
+  </si>
+  <si>
+    <t>2022-09-10</t>
+  </si>
+  <si>
+    <t>2024-10-14</t>
+  </si>
+  <si>
+    <t>2024-10-15</t>
+  </si>
+  <si>
+    <t>2024-10-16</t>
+  </si>
+  <si>
+    <t>2024-10-17</t>
+  </si>
+  <si>
+    <t>2024-10-20</t>
+  </si>
+  <si>
+    <t>2024-10-22</t>
+  </si>
+  <si>
+    <t>2024-10-23</t>
+  </si>
+  <si>
+    <t>2024-10-24</t>
+  </si>
+  <si>
+    <t>2024-10-27</t>
+  </si>
+  <si>
+    <t>2024-10-28</t>
+  </si>
+  <si>
+    <t>2024-10-29</t>
+  </si>
+  <si>
+    <t>2024-10-30</t>
+  </si>
+  <si>
+    <t>2024-11-01</t>
+  </si>
+  <si>
+    <t>2024-11-02</t>
+  </si>
+  <si>
+    <t>2024-11-03</t>
+  </si>
+  <si>
+    <t>2024-11-04</t>
+  </si>
+  <si>
+    <t>2024-11-05</t>
+  </si>
+  <si>
+    <t>2024-11-06</t>
+  </si>
+  <si>
+    <t>2024-11-08</t>
+  </si>
+  <si>
+    <t>2024-11-10</t>
+  </si>
+  <si>
+    <t>2024-11-13</t>
+  </si>
+  <si>
+    <t>2024-10-08</t>
+  </si>
+  <si>
+    <t>2024-10-09</t>
+  </si>
+  <si>
+    <t>2024-11-07</t>
+  </si>
+  <si>
+    <t>2024-10-31</t>
+  </si>
+  <si>
+    <t>2024-10-06</t>
+  </si>
+  <si>
+    <t>2024-10-07</t>
+  </si>
+  <si>
+    <t>2024-10-10</t>
+  </si>
+  <si>
+    <t>2024-10-11</t>
+  </si>
+  <si>
+    <t>2024-10-12</t>
+  </si>
+  <si>
+    <t>2024-10-13</t>
+  </si>
+  <si>
+    <t>2024-10-18</t>
+  </si>
+  <si>
+    <t>2024-10-19</t>
+  </si>
+  <si>
+    <t>2024-10-21</t>
+  </si>
+  <si>
+    <t>2024-10-25</t>
+  </si>
+  <si>
+    <t>2024-10-26</t>
+  </si>
+  <si>
+    <t>2024-11-09</t>
+  </si>
+  <si>
+    <t>2024-11-11</t>
+  </si>
+  <si>
+    <t>2022-09-23</t>
+  </si>
+  <si>
+    <t>2022-09-22</t>
+  </si>
+  <si>
+    <t>2022-09-19</t>
+  </si>
+  <si>
+    <t>2022-09-14</t>
+  </si>
+  <si>
+    <t>2022-09-13</t>
+  </si>
+  <si>
+    <t>2022-09-09</t>
+  </si>
+  <si>
+    <t>2022-09-08</t>
+  </si>
+  <si>
+    <t>2022-09-07</t>
+  </si>
+  <si>
+    <t>2022-09-06</t>
+  </si>
+  <si>
+    <t>2022-09-02</t>
+  </si>
+  <si>
+    <t>2022-08-31</t>
+  </si>
+  <si>
+    <t>2022-08-29</t>
+  </si>
+  <si>
+    <t>2022-08-28</t>
+  </si>
+  <si>
+    <t>2022-08-25</t>
+  </si>
+  <si>
+    <t>2022-08-24</t>
+  </si>
+  <si>
+    <t>2022-08-23</t>
+  </si>
+  <si>
+    <t>2022-08-22</t>
+  </si>
+  <si>
+    <t>2022-08-20</t>
+  </si>
+  <si>
+    <t>2022-08-18</t>
+  </si>
+  <si>
+    <t>2022-08-17</t>
+  </si>
+  <si>
+    <t>2022-08-15</t>
+  </si>
+  <si>
+    <t>2022-08-14</t>
+  </si>
+  <si>
+    <t>2022-08-13</t>
+  </si>
+  <si>
+    <t>2022-08-12</t>
+  </si>
+  <si>
+    <t>2022-08-11</t>
+  </si>
+  <si>
+    <t>2022-08-10</t>
+  </si>
+  <si>
+    <t>2022-08-09</t>
+  </si>
+  <si>
+    <t>2022-08-03</t>
+  </si>
+  <si>
+    <t>2022-07-31</t>
+  </si>
+  <si>
+    <t>2022-07-28</t>
+  </si>
+  <si>
+    <t>2022-07-22</t>
+  </si>
+  <si>
+    <t>2022-07-21</t>
+  </si>
+  <si>
+    <t>2022-07-19</t>
+  </si>
+  <si>
+    <t>2022-07-16</t>
+  </si>
+  <si>
+    <t>2022-07-14</t>
+  </si>
+  <si>
+    <t>2022-07-12</t>
+  </si>
+  <si>
+    <t>2022-07-11</t>
+  </si>
+  <si>
+    <t>2022-07-09</t>
+  </si>
+  <si>
+    <t>2022-07-08</t>
+  </si>
+  <si>
+    <t>2022-07-06</t>
+  </si>
+  <si>
+    <t>2022-07-05</t>
+  </si>
+  <si>
+    <t>2022-07-03</t>
+  </si>
+  <si>
+    <t>2022-07-01</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-06-28</t>
+  </si>
+  <si>
+    <t>2022-06-27</t>
+  </si>
+  <si>
+    <t>2022-06-24</t>
+  </si>
+  <si>
+    <t>2022-06-22</t>
+  </si>
+  <si>
+    <t>2022-06-21</t>
+  </si>
+  <si>
+    <t>2022-06-16</t>
+  </si>
+  <si>
+    <t>2022-06-15</t>
+  </si>
+  <si>
+    <t>2022-06-14</t>
+  </si>
+  <si>
+    <t>2022-06-13</t>
+  </si>
+  <si>
+    <t>2022-06-12</t>
+  </si>
+  <si>
+    <t>2022-06-10</t>
+  </si>
+  <si>
+    <t>2022-06-08</t>
+  </si>
+  <si>
+    <t>2022-06-07</t>
+  </si>
+  <si>
+    <t>2022-06-04</t>
+  </si>
+  <si>
+    <t>2022-06-03</t>
+  </si>
+  <si>
+    <t>2022-06-02</t>
+  </si>
+  <si>
+    <t>2022-05-31</t>
+  </si>
+  <si>
+    <t>2022-05-30</t>
+  </si>
+  <si>
+    <t>2022-05-28</t>
+  </si>
+  <si>
+    <t>2022-05-27</t>
+  </si>
+  <si>
+    <t>2022-05-26</t>
+  </si>
+  <si>
+    <t>2022-05-23</t>
+  </si>
+  <si>
+    <t>2022-05-21</t>
+  </si>
+  <si>
+    <t>2022-05-16</t>
+  </si>
+  <si>
+    <t>2022-05-15</t>
+  </si>
+  <si>
+    <t>2022-05-12</t>
+  </si>
+  <si>
+    <t>2022-05-11</t>
+  </si>
+  <si>
+    <t>2022-05-10</t>
+  </si>
+  <si>
+    <t>2022-05-06</t>
+  </si>
+  <si>
+    <t>2022-05-03</t>
+  </si>
+  <si>
+    <t>2022-05-01</t>
+  </si>
+  <si>
+    <t>2022-04-22</t>
+  </si>
+  <si>
+    <t>2022-04-21</t>
+  </si>
+  <si>
+    <t>2022-04-07</t>
+  </si>
+  <si>
+    <t>2022-04-03</t>
+  </si>
+  <si>
+    <t>2022-04-01</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2022-03-29</t>
+  </si>
+  <si>
+    <t>2022-03-28</t>
+  </si>
+  <si>
+    <t>2022-03-25</t>
+  </si>
+  <si>
+    <t>2022-03-17</t>
+  </si>
+  <si>
+    <t>2022-03-10</t>
+  </si>
+  <si>
+    <t>2022-03-09</t>
+  </si>
+  <si>
+    <t>2022-03-07</t>
+  </si>
+  <si>
+    <t>2022-03-03</t>
+  </si>
+  <si>
+    <t>2022-02-24</t>
+  </si>
+  <si>
+    <t>2022-02-22</t>
+  </si>
+  <si>
+    <t>2022-02-11</t>
+  </si>
+  <si>
+    <t>2022-02-05</t>
+  </si>
+  <si>
+    <t>2022-02-03</t>
+  </si>
+  <si>
+    <t>2022-01-23</t>
+  </si>
+  <si>
+    <t>2021-12-04</t>
+  </si>
+  <si>
+    <t>2021-12-02</t>
+  </si>
+  <si>
+    <t>2021-10-28</t>
+  </si>
+  <si>
+    <t>2021-09-20</t>
+  </si>
+  <si>
+    <t>2021-09-17</t>
+  </si>
+  <si>
+    <t>2021-09-14</t>
+  </si>
+  <si>
+    <t>2021-09-12</t>
+  </si>
+  <si>
+    <t>2021-09-08</t>
+  </si>
+  <si>
+    <t>2021-08-25</t>
+  </si>
+  <si>
+    <t>2021-08-18</t>
+  </si>
+  <si>
+    <t>2021-08-16</t>
+  </si>
+  <si>
+    <t>2021-08-13</t>
+  </si>
+  <si>
+    <t>2021-07-19</t>
+  </si>
+  <si>
+    <t>2021-07-10</t>
+  </si>
+  <si>
+    <t>2021-06-22</t>
+  </si>
+  <si>
+    <t>2021-06-20</t>
+  </si>
+  <si>
+    <t>2021-06-12</t>
+  </si>
+  <si>
+    <t>2021-06-08</t>
+  </si>
+  <si>
+    <t>2021-06-04</t>
+  </si>
+  <si>
+    <t>2021-05-29</t>
+  </si>
+  <si>
+    <t>2021-05-28</t>
+  </si>
+  <si>
+    <t>2021-05-26</t>
+  </si>
+  <si>
+    <t>2021-05-24</t>
+  </si>
+  <si>
+    <t>2021-05-22</t>
+  </si>
+  <si>
+    <t>2021-05-19</t>
+  </si>
+  <si>
+    <t>2021-05-13</t>
+  </si>
+  <si>
+    <t>2021-05-08</t>
+  </si>
+  <si>
+    <t>2021-05-07</t>
+  </si>
+  <si>
+    <t>2021-05-04</t>
+  </si>
+  <si>
+    <t>2021-05-02</t>
+  </si>
+  <si>
+    <t>2021-04-28</t>
+  </si>
+  <si>
+    <t>2021-04-27</t>
+  </si>
+  <si>
+    <t>2021-04-26</t>
+  </si>
+  <si>
+    <t>2021-04-24</t>
+  </si>
+  <si>
+    <t>2021-04-23</t>
+  </si>
+  <si>
+    <t>2021-04-21</t>
+  </si>
+  <si>
+    <t>2021-04-20</t>
+  </si>
+  <si>
+    <t>2021-04-18</t>
+  </si>
+  <si>
+    <t>2021-04-17</t>
+  </si>
+  <si>
+    <t>2021-04-16</t>
+  </si>
+  <si>
+    <t>2021-04-15</t>
+  </si>
+  <si>
+    <t>2021-04-14</t>
+  </si>
+  <si>
+    <t>2021-04-13</t>
+  </si>
+  <si>
+    <t>2021-04-12</t>
+  </si>
+  <si>
+    <t>2021-04-11</t>
+  </si>
+  <si>
+    <t>2021-04-10</t>
+  </si>
+  <si>
+    <t>2021-04-09</t>
+  </si>
+  <si>
+    <t>2021-04-08</t>
+  </si>
+  <si>
+    <t>2021-04-07</t>
+  </si>
+  <si>
+    <t>2021-04-06</t>
+  </si>
+  <si>
+    <t>2021-04-05</t>
+  </si>
+  <si>
+    <t>2021-04-04</t>
+  </si>
+  <si>
+    <t>2021-04-03</t>
+  </si>
+  <si>
+    <t>2021-04-02</t>
+  </si>
+  <si>
+    <t>2021-04-01</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2021-03-29</t>
+  </si>
+  <si>
+    <t>2021-03-26</t>
+  </si>
+  <si>
+    <t>2021-03-25</t>
+  </si>
+  <si>
+    <t>2021-03-24</t>
+  </si>
+  <si>
+    <t>2021-03-23</t>
+  </si>
+  <si>
+    <t>2021-03-22</t>
+  </si>
+  <si>
+    <t>2021-03-21</t>
+  </si>
+  <si>
+    <t>2021-03-16</t>
+  </si>
+  <si>
+    <t>2021-03-15</t>
+  </si>
+  <si>
+    <t>2021-03-13</t>
+  </si>
+  <si>
+    <t>2021-03-12</t>
+  </si>
+  <si>
+    <t>2021-03-11</t>
+  </si>
+  <si>
+    <t>2021-03-09</t>
+  </si>
+  <si>
+    <t>2021-03-06</t>
+  </si>
+  <si>
+    <t>2021-03-05</t>
+  </si>
+  <si>
+    <t>2021-03-03</t>
+  </si>
+  <si>
+    <t>2021-02-28</t>
+  </si>
+  <si>
+    <t>2021-02-26</t>
+  </si>
+  <si>
+    <t>2021-02-25</t>
+  </si>
+  <si>
+    <t>2021-02-24</t>
+  </si>
+  <si>
+    <t>2021-02-23</t>
+  </si>
+  <si>
+    <t>2021-02-22</t>
+  </si>
+  <si>
+    <t>2021-02-21</t>
+  </si>
+  <si>
+    <t>2021-02-20</t>
+  </si>
+  <si>
+    <t>2021-02-18</t>
+  </si>
+  <si>
+    <t>2021-02-17</t>
+  </si>
+  <si>
+    <t>2021-02-16</t>
+  </si>
+  <si>
+    <t>2021-02-15</t>
+  </si>
+  <si>
+    <t>2021-01-21</t>
+  </si>
+  <si>
+    <t>2021-01-20</t>
+  </si>
+  <si>
+    <t>2021-01-13</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>2023-08-09</t>
+  </si>
+  <si>
+    <t>2023-08-05</t>
+  </si>
+  <si>
+    <t>2024-11-14</t>
+  </si>
+  <si>
+    <t>2022-07-04</t>
+  </si>
+  <si>
+    <t>2024-03-10</t>
   </si>
 </sst>
 </file>
@@ -1979,7 +3356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B535"/>
+  <dimension ref="A1:B994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6265,6 +7642,3678 @@
         <v>0.06778000000000001</v>
       </c>
     </row>
+    <row r="536" spans="1:2">
+      <c r="A536" t="s">
+        <v>536</v>
+      </c>
+      <c r="B536">
+        <v>0.1677</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" t="s">
+        <v>537</v>
+      </c>
+      <c r="B537">
+        <v>0.1563</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" t="s">
+        <v>538</v>
+      </c>
+      <c r="B538">
+        <v>0.1522</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" t="s">
+        <v>539</v>
+      </c>
+      <c r="B539">
+        <v>0.1549</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" t="s">
+        <v>540</v>
+      </c>
+      <c r="B540">
+        <v>0.06278</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" t="s">
+        <v>541</v>
+      </c>
+      <c r="B541">
+        <v>0.06778000000000001</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542" t="s">
+        <v>542</v>
+      </c>
+      <c r="B542">
+        <v>0.1329</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543" t="s">
+        <v>543</v>
+      </c>
+      <c r="B543">
+        <v>0.1202</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544" t="s">
+        <v>544</v>
+      </c>
+      <c r="B544">
+        <v>0.1372</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545" t="s">
+        <v>545</v>
+      </c>
+      <c r="B545">
+        <v>0.1352</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546" t="s">
+        <v>546</v>
+      </c>
+      <c r="B546">
+        <v>0.1359</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547" t="s">
+        <v>547</v>
+      </c>
+      <c r="B547">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="A548" t="s">
+        <v>548</v>
+      </c>
+      <c r="B548">
+        <v>0.1242</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549" t="s">
+        <v>549</v>
+      </c>
+      <c r="B549">
+        <v>0.1245</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550" t="s">
+        <v>550</v>
+      </c>
+      <c r="B550">
+        <v>0.1219</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" t="s">
+        <v>551</v>
+      </c>
+      <c r="B551">
+        <v>0.1236</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552" t="s">
+        <v>552</v>
+      </c>
+      <c r="B552">
+        <v>0.1209</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="A553" t="s">
+        <v>553</v>
+      </c>
+      <c r="B553">
+        <v>0.1184</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
+      <c r="A554" t="s">
+        <v>554</v>
+      </c>
+      <c r="B554">
+        <v>0.1172</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555" t="s">
+        <v>555</v>
+      </c>
+      <c r="B555">
+        <v>0.1162</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" t="s">
+        <v>556</v>
+      </c>
+      <c r="B556">
+        <v>0.1156</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557" t="s">
+        <v>557</v>
+      </c>
+      <c r="B557">
+        <v>0.1123</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2">
+      <c r="A558" t="s">
+        <v>558</v>
+      </c>
+      <c r="B558">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="A559" t="s">
+        <v>559</v>
+      </c>
+      <c r="B559">
+        <v>0.1123</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560" t="s">
+        <v>560</v>
+      </c>
+      <c r="B560">
+        <v>0.1125</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561" t="s">
+        <v>561</v>
+      </c>
+      <c r="B561">
+        <v>0.1145</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" t="s">
+        <v>562</v>
+      </c>
+      <c r="B562">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" t="s">
+        <v>563</v>
+      </c>
+      <c r="B563">
+        <v>0.1088</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" t="s">
+        <v>564</v>
+      </c>
+      <c r="B564">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" t="s">
+        <v>565</v>
+      </c>
+      <c r="B565">
+        <v>0.1104</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566" t="s">
+        <v>566</v>
+      </c>
+      <c r="B566">
+        <v>0.1081</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567" t="s">
+        <v>567</v>
+      </c>
+      <c r="B567">
+        <v>0.1112</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568" t="s">
+        <v>568</v>
+      </c>
+      <c r="B568">
+        <v>0.1142</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569" t="s">
+        <v>569</v>
+      </c>
+      <c r="B569">
+        <v>0.1069</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570" t="s">
+        <v>570</v>
+      </c>
+      <c r="B570">
+        <v>0.1028</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571" t="s">
+        <v>571</v>
+      </c>
+      <c r="B571">
+        <v>0.1043</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572" t="s">
+        <v>572</v>
+      </c>
+      <c r="B572">
+        <v>0.1028</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573" t="s">
+        <v>573</v>
+      </c>
+      <c r="B573">
+        <v>0.1039</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574" t="s">
+        <v>574</v>
+      </c>
+      <c r="B574">
+        <v>0.1044</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575" t="s">
+        <v>575</v>
+      </c>
+      <c r="B575">
+        <v>0.1078</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" t="s">
+        <v>576</v>
+      </c>
+      <c r="B576">
+        <v>0.1077</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577" t="s">
+        <v>577</v>
+      </c>
+      <c r="B577">
+        <v>0.1059</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" t="s">
+        <v>578</v>
+      </c>
+      <c r="B578">
+        <v>0.1063</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="A579" t="s">
+        <v>579</v>
+      </c>
+      <c r="B579">
+        <v>0.1068</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2">
+      <c r="A580" t="s">
+        <v>580</v>
+      </c>
+      <c r="B580">
+        <v>0.1053</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="A581" t="s">
+        <v>581</v>
+      </c>
+      <c r="B581">
+        <v>0.1047</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="A582" t="s">
+        <v>582</v>
+      </c>
+      <c r="B582">
+        <v>0.1006</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583" t="s">
+        <v>583</v>
+      </c>
+      <c r="B583">
+        <v>0.101</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2">
+      <c r="A584" t="s">
+        <v>584</v>
+      </c>
+      <c r="B584">
+        <v>0.102</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2">
+      <c r="A585" t="s">
+        <v>585</v>
+      </c>
+      <c r="B585">
+        <v>0.1028</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586" t="s">
+        <v>586</v>
+      </c>
+      <c r="B586">
+        <v>0.1061</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587" t="s">
+        <v>587</v>
+      </c>
+      <c r="B587">
+        <v>0.1043</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="A588" t="s">
+        <v>588</v>
+      </c>
+      <c r="B588">
+        <v>0.1037</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589" t="s">
+        <v>589</v>
+      </c>
+      <c r="B589">
+        <v>0.1039</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2">
+      <c r="A590" t="s">
+        <v>590</v>
+      </c>
+      <c r="B590">
+        <v>0.1078</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2">
+      <c r="A591" t="s">
+        <v>591</v>
+      </c>
+      <c r="B591">
+        <v>0.1067</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2">
+      <c r="A592" t="s">
+        <v>592</v>
+      </c>
+      <c r="B592">
+        <v>0.1043</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593" t="s">
+        <v>593</v>
+      </c>
+      <c r="B593">
+        <v>0.1048</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594" t="s">
+        <v>594</v>
+      </c>
+      <c r="B594">
+        <v>0.1036</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" t="s">
+        <v>595</v>
+      </c>
+      <c r="B595">
+        <v>0.1038</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596" t="s">
+        <v>596</v>
+      </c>
+      <c r="B596">
+        <v>0.1031</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2">
+      <c r="A597" t="s">
+        <v>597</v>
+      </c>
+      <c r="B597">
+        <v>0.1033</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2">
+      <c r="A598" t="s">
+        <v>598</v>
+      </c>
+      <c r="B598">
+        <v>0.1031</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599" t="s">
+        <v>599</v>
+      </c>
+      <c r="B599">
+        <v>0.1035</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2">
+      <c r="A600" t="s">
+        <v>600</v>
+      </c>
+      <c r="B600">
+        <v>0.1024</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2">
+      <c r="A601" t="s">
+        <v>601</v>
+      </c>
+      <c r="B601">
+        <v>0.1042</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="A602" t="s">
+        <v>602</v>
+      </c>
+      <c r="B602">
+        <v>0.1069</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2">
+      <c r="A603" t="s">
+        <v>603</v>
+      </c>
+      <c r="B603">
+        <v>0.1084</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2">
+      <c r="A604" t="s">
+        <v>604</v>
+      </c>
+      <c r="B604">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605" t="s">
+        <v>605</v>
+      </c>
+      <c r="B605">
+        <v>0.1063</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="A606" t="s">
+        <v>606</v>
+      </c>
+      <c r="B606">
+        <v>0.0984</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607" t="s">
+        <v>607</v>
+      </c>
+      <c r="B607">
+        <v>0.09665</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2">
+      <c r="A608" t="s">
+        <v>608</v>
+      </c>
+      <c r="B608">
+        <v>0.0977</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2">
+      <c r="A609" t="s">
+        <v>609</v>
+      </c>
+      <c r="B609">
+        <v>0.09823999999999999</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2">
+      <c r="A610" t="s">
+        <v>610</v>
+      </c>
+      <c r="B610">
+        <v>0.09726</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2">
+      <c r="A611" t="s">
+        <v>611</v>
+      </c>
+      <c r="B611">
+        <v>0.09923999999999999</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2">
+      <c r="A612" t="s">
+        <v>612</v>
+      </c>
+      <c r="B612">
+        <v>0.1002</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613" t="s">
+        <v>613</v>
+      </c>
+      <c r="B613">
+        <v>0.09716</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2">
+      <c r="A614" t="s">
+        <v>614</v>
+      </c>
+      <c r="B614">
+        <v>0.09565</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2">
+      <c r="A615" t="s">
+        <v>615</v>
+      </c>
+      <c r="B615">
+        <v>0.09485</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616" t="s">
+        <v>616</v>
+      </c>
+      <c r="B616">
+        <v>0.09435</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" t="s">
+        <v>617</v>
+      </c>
+      <c r="B617">
+        <v>0.09356</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2">
+      <c r="A618" t="s">
+        <v>618</v>
+      </c>
+      <c r="B618">
+        <v>0.09286999999999999</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2">
+      <c r="A619" t="s">
+        <v>619</v>
+      </c>
+      <c r="B619">
+        <v>0.09349</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2">
+      <c r="A620" t="s">
+        <v>620</v>
+      </c>
+      <c r="B620">
+        <v>0.09227</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2">
+      <c r="A621" t="s">
+        <v>621</v>
+      </c>
+      <c r="B621">
+        <v>0.09039999999999999</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2">
+      <c r="A622" t="s">
+        <v>622</v>
+      </c>
+      <c r="B622">
+        <v>0.09161999999999999</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2">
+      <c r="A623" t="s">
+        <v>623</v>
+      </c>
+      <c r="B623">
+        <v>0.09071</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2">
+      <c r="A624" t="s">
+        <v>624</v>
+      </c>
+      <c r="B624">
+        <v>0.08999</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2">
+      <c r="A625" t="s">
+        <v>625</v>
+      </c>
+      <c r="B625">
+        <v>0.08921999999999999</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2">
+      <c r="A626" t="s">
+        <v>626</v>
+      </c>
+      <c r="B626">
+        <v>0.08866</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2">
+      <c r="A627" t="s">
+        <v>627</v>
+      </c>
+      <c r="B627">
+        <v>0.08505</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2">
+      <c r="A628" t="s">
+        <v>628</v>
+      </c>
+      <c r="B628">
+        <v>0.08549</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2">
+      <c r="A629" t="s">
+        <v>629</v>
+      </c>
+      <c r="B629">
+        <v>0.0849</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2">
+      <c r="A630" t="s">
+        <v>630</v>
+      </c>
+      <c r="B630">
+        <v>0.0863</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2">
+      <c r="A631" t="s">
+        <v>631</v>
+      </c>
+      <c r="B631">
+        <v>0.08799</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2">
+      <c r="A632" t="s">
+        <v>632</v>
+      </c>
+      <c r="B632">
+        <v>0.08813</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2">
+      <c r="A633" t="s">
+        <v>633</v>
+      </c>
+      <c r="B633">
+        <v>0.08893</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2">
+      <c r="A634" t="s">
+        <v>634</v>
+      </c>
+      <c r="B634">
+        <v>0.08752</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2">
+      <c r="A635" t="s">
+        <v>635</v>
+      </c>
+      <c r="B635">
+        <v>0.09014999999999999</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2">
+      <c r="A636" t="s">
+        <v>636</v>
+      </c>
+      <c r="B636">
+        <v>0.0886</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2">
+      <c r="A637" t="s">
+        <v>637</v>
+      </c>
+      <c r="B637">
+        <v>0.08906</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2">
+      <c r="A638" t="s">
+        <v>638</v>
+      </c>
+      <c r="B638">
+        <v>0.08472</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2">
+      <c r="A639" t="s">
+        <v>639</v>
+      </c>
+      <c r="B639">
+        <v>0.08362</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2">
+      <c r="A640" t="s">
+        <v>640</v>
+      </c>
+      <c r="B640">
+        <v>0.08365</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2">
+      <c r="A641" t="s">
+        <v>641</v>
+      </c>
+      <c r="B641">
+        <v>0.08338</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2">
+      <c r="A642" t="s">
+        <v>642</v>
+      </c>
+      <c r="B642">
+        <v>0.08305</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2">
+      <c r="A643" t="s">
+        <v>643</v>
+      </c>
+      <c r="B643">
+        <v>0.08459</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2">
+      <c r="A644" t="s">
+        <v>644</v>
+      </c>
+      <c r="B644">
+        <v>0.08402</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2">
+      <c r="A645" t="s">
+        <v>645</v>
+      </c>
+      <c r="B645">
+        <v>0.08338</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2">
+      <c r="A646" t="s">
+        <v>646</v>
+      </c>
+      <c r="B646">
+        <v>0.08354</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2">
+      <c r="A647" t="s">
+        <v>647</v>
+      </c>
+      <c r="B647">
+        <v>0.08074000000000001</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2">
+      <c r="A648" t="s">
+        <v>648</v>
+      </c>
+      <c r="B648">
+        <v>0.07833</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2">
+      <c r="A649" t="s">
+        <v>649</v>
+      </c>
+      <c r="B649">
+        <v>0.07917</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2">
+      <c r="A650" t="s">
+        <v>650</v>
+      </c>
+      <c r="B650">
+        <v>0.07915999999999999</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2">
+      <c r="A651" t="s">
+        <v>651</v>
+      </c>
+      <c r="B651">
+        <v>0.07745</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2">
+      <c r="A652" t="s">
+        <v>652</v>
+      </c>
+      <c r="B652">
+        <v>0.07747999999999999</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2">
+      <c r="A653" t="s">
+        <v>653</v>
+      </c>
+      <c r="B653">
+        <v>0.07703</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2">
+      <c r="A654" t="s">
+        <v>654</v>
+      </c>
+      <c r="B654">
+        <v>0.07703</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2">
+      <c r="A655" t="s">
+        <v>655</v>
+      </c>
+      <c r="B655">
+        <v>0.07604</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2">
+      <c r="A656" t="s">
+        <v>656</v>
+      </c>
+      <c r="B656">
+        <v>0.07671</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
+      <c r="A657" t="s">
+        <v>657</v>
+      </c>
+      <c r="B657">
+        <v>0.07564</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
+      <c r="A658" t="s">
+        <v>658</v>
+      </c>
+      <c r="B658">
+        <v>0.07732</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
+      <c r="A659" t="s">
+        <v>659</v>
+      </c>
+      <c r="B659">
+        <v>0.07746</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
+      <c r="A660" t="s">
+        <v>660</v>
+      </c>
+      <c r="B660">
+        <v>0.07738</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2">
+      <c r="A661" t="s">
+        <v>661</v>
+      </c>
+      <c r="B661">
+        <v>0.07721</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="A662" t="s">
+        <v>662</v>
+      </c>
+      <c r="B662">
+        <v>0.07547</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="A663" t="s">
+        <v>663</v>
+      </c>
+      <c r="B663">
+        <v>0.07517</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="A664" t="s">
+        <v>664</v>
+      </c>
+      <c r="B664">
+        <v>0.07587000000000001</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2">
+      <c r="A665" t="s">
+        <v>665</v>
+      </c>
+      <c r="B665">
+        <v>0.07411</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2">
+      <c r="A666" t="s">
+        <v>666</v>
+      </c>
+      <c r="B666">
+        <v>0.07464</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2">
+      <c r="A667" t="s">
+        <v>667</v>
+      </c>
+      <c r="B667">
+        <v>0.07625999999999999</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2">
+      <c r="A668" t="s">
+        <v>668</v>
+      </c>
+      <c r="B668">
+        <v>0.07704999999999999</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2">
+      <c r="A669" t="s">
+        <v>669</v>
+      </c>
+      <c r="B669">
+        <v>0.07716000000000001</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2">
+      <c r="A670" t="s">
+        <v>670</v>
+      </c>
+      <c r="B670">
+        <v>0.07725</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2">
+      <c r="A671" t="s">
+        <v>671</v>
+      </c>
+      <c r="B671">
+        <v>0.07668</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2">
+      <c r="A672" t="s">
+        <v>672</v>
+      </c>
+      <c r="B672">
+        <v>0.07677</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2">
+      <c r="A673" t="s">
+        <v>673</v>
+      </c>
+      <c r="B673">
+        <v>0.07683</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2">
+      <c r="A674" t="s">
+        <v>674</v>
+      </c>
+      <c r="B674">
+        <v>0.07747999999999999</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2">
+      <c r="A675" t="s">
+        <v>675</v>
+      </c>
+      <c r="B675">
+        <v>0.07718</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2">
+      <c r="A676" t="s">
+        <v>676</v>
+      </c>
+      <c r="B676">
+        <v>0.07643999999999999</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2">
+      <c r="A677" t="s">
+        <v>677</v>
+      </c>
+      <c r="B677">
+        <v>0.07863000000000001</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2">
+      <c r="A678" t="s">
+        <v>678</v>
+      </c>
+      <c r="B678">
+        <v>0.07795000000000001</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2">
+      <c r="A679" t="s">
+        <v>679</v>
+      </c>
+      <c r="B679">
+        <v>0.08325</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2">
+      <c r="A680" t="s">
+        <v>680</v>
+      </c>
+      <c r="B680">
+        <v>0.08505</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2">
+      <c r="A681" t="s">
+        <v>681</v>
+      </c>
+      <c r="B681">
+        <v>0.08241999999999999</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2">
+      <c r="A682" t="s">
+        <v>682</v>
+      </c>
+      <c r="B682">
+        <v>0.08191</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2">
+      <c r="A683" t="s">
+        <v>683</v>
+      </c>
+      <c r="B683">
+        <v>0.08152</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2">
+      <c r="A684" t="s">
+        <v>684</v>
+      </c>
+      <c r="B684">
+        <v>0.08334999999999999</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2">
+      <c r="A685" t="s">
+        <v>685</v>
+      </c>
+      <c r="B685">
+        <v>0.08386</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2">
+      <c r="A686" t="s">
+        <v>686</v>
+      </c>
+      <c r="B686">
+        <v>0.08001999999999999</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2">
+      <c r="A687" t="s">
+        <v>687</v>
+      </c>
+      <c r="B687">
+        <v>0.07979</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2">
+      <c r="A688" t="s">
+        <v>688</v>
+      </c>
+      <c r="B688">
+        <v>0.07989</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2">
+      <c r="A689" t="s">
+        <v>689</v>
+      </c>
+      <c r="B689">
+        <v>0.07785</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2">
+      <c r="A690" t="s">
+        <v>690</v>
+      </c>
+      <c r="B690">
+        <v>0.07753</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2">
+      <c r="A691" t="s">
+        <v>691</v>
+      </c>
+      <c r="B691">
+        <v>0.07882</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2">
+      <c r="A692" t="s">
+        <v>692</v>
+      </c>
+      <c r="B692">
+        <v>0.07718</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2">
+      <c r="A693" t="s">
+        <v>693</v>
+      </c>
+      <c r="B693">
+        <v>0.07707</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2">
+      <c r="A694" t="s">
+        <v>694</v>
+      </c>
+      <c r="B694">
+        <v>0.07698000000000001</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2">
+      <c r="A695" t="s">
+        <v>695</v>
+      </c>
+      <c r="B695">
+        <v>0.07731</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2">
+      <c r="A696" t="s">
+        <v>696</v>
+      </c>
+      <c r="B696">
+        <v>0.07604</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2">
+      <c r="A697" t="s">
+        <v>697</v>
+      </c>
+      <c r="B697">
+        <v>0.07731</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2">
+      <c r="A698" t="s">
+        <v>698</v>
+      </c>
+      <c r="B698">
+        <v>0.07621</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2">
+      <c r="A699" t="s">
+        <v>699</v>
+      </c>
+      <c r="B699">
+        <v>0.07449</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2">
+      <c r="A700" t="s">
+        <v>700</v>
+      </c>
+      <c r="B700">
+        <v>0.07376000000000001</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2">
+      <c r="A701" t="s">
+        <v>701</v>
+      </c>
+      <c r="B701">
+        <v>0.07435</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2">
+      <c r="A702" t="s">
+        <v>702</v>
+      </c>
+      <c r="B702">
+        <v>0.07310999999999999</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2">
+      <c r="A703" t="s">
+        <v>703</v>
+      </c>
+      <c r="B703">
+        <v>0.07221</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2">
+      <c r="A704" t="s">
+        <v>704</v>
+      </c>
+      <c r="B704">
+        <v>0.07318</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2">
+      <c r="A705" t="s">
+        <v>705</v>
+      </c>
+      <c r="B705">
+        <v>0.0721</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2">
+      <c r="A706" t="s">
+        <v>706</v>
+      </c>
+      <c r="B706">
+        <v>0.07238</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2">
+      <c r="A707" t="s">
+        <v>707</v>
+      </c>
+      <c r="B707">
+        <v>0.06995</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2">
+      <c r="A708" t="s">
+        <v>708</v>
+      </c>
+      <c r="B708">
+        <v>0.07016</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2">
+      <c r="A709" t="s">
+        <v>709</v>
+      </c>
+      <c r="B709">
+        <v>0.07158</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2">
+      <c r="A710" t="s">
+        <v>710</v>
+      </c>
+      <c r="B710">
+        <v>0.07049999999999999</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2">
+      <c r="A711" t="s">
+        <v>711</v>
+      </c>
+      <c r="B711">
+        <v>0.07096</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2">
+      <c r="A712" t="s">
+        <v>712</v>
+      </c>
+      <c r="B712">
+        <v>0.07102</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2">
+      <c r="A713" t="s">
+        <v>713</v>
+      </c>
+      <c r="B713">
+        <v>0.07017</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2">
+      <c r="A714" t="s">
+        <v>714</v>
+      </c>
+      <c r="B714">
+        <v>0.07204000000000001</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2">
+      <c r="A715" t="s">
+        <v>715</v>
+      </c>
+      <c r="B715">
+        <v>0.07743999999999999</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2">
+      <c r="A716" t="s">
+        <v>716</v>
+      </c>
+      <c r="B716">
+        <v>0.07675999999999999</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2">
+      <c r="A717" t="s">
+        <v>717</v>
+      </c>
+      <c r="B717">
+        <v>0.07819</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2">
+      <c r="A718" t="s">
+        <v>718</v>
+      </c>
+      <c r="B718">
+        <v>0.08142000000000001</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2">
+      <c r="A719" t="s">
+        <v>719</v>
+      </c>
+      <c r="B719">
+        <v>0.08179</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2">
+      <c r="A720" t="s">
+        <v>720</v>
+      </c>
+      <c r="B720">
+        <v>0.07473</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2">
+      <c r="A721" t="s">
+        <v>721</v>
+      </c>
+      <c r="B721">
+        <v>0.07529</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2">
+      <c r="A722" t="s">
+        <v>722</v>
+      </c>
+      <c r="B722">
+        <v>0.07639</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2">
+      <c r="A723" t="s">
+        <v>723</v>
+      </c>
+      <c r="B723">
+        <v>0.07745</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2">
+      <c r="A724" t="s">
+        <v>724</v>
+      </c>
+      <c r="B724">
+        <v>0.07686999999999999</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2">
+      <c r="A725" t="s">
+        <v>725</v>
+      </c>
+      <c r="B725">
+        <v>0.06612</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2">
+      <c r="A726" t="s">
+        <v>726</v>
+      </c>
+      <c r="B726">
+        <v>0.1174</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2">
+      <c r="A727" t="s">
+        <v>727</v>
+      </c>
+      <c r="B727">
+        <v>0.1252</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2">
+      <c r="A728" t="s">
+        <v>728</v>
+      </c>
+      <c r="B728">
+        <v>0.06372999999999999</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2">
+      <c r="A729" t="s">
+        <v>729</v>
+      </c>
+      <c r="B729">
+        <v>0.05927</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2">
+      <c r="A730" t="s">
+        <v>730</v>
+      </c>
+      <c r="B730">
+        <v>0.05755</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2">
+      <c r="A731" t="s">
+        <v>731</v>
+      </c>
+      <c r="B731">
+        <v>0.06791999999999999</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2">
+      <c r="A732" t="s">
+        <v>732</v>
+      </c>
+      <c r="B732">
+        <v>0.07194</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2">
+      <c r="A733" t="s">
+        <v>733</v>
+      </c>
+      <c r="B733">
+        <v>0.07033</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2">
+      <c r="A734" t="s">
+        <v>734</v>
+      </c>
+      <c r="B734">
+        <v>0.07013</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2">
+      <c r="A735" t="s">
+        <v>735</v>
+      </c>
+      <c r="B735">
+        <v>0.06386</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2">
+      <c r="A736" t="s">
+        <v>736</v>
+      </c>
+      <c r="B736">
+        <v>0.06374</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2">
+      <c r="A737" t="s">
+        <v>737</v>
+      </c>
+      <c r="B737">
+        <v>0.06331000000000001</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2">
+      <c r="A738" t="s">
+        <v>738</v>
+      </c>
+      <c r="B738">
+        <v>0.06314</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2">
+      <c r="A739" t="s">
+        <v>739</v>
+      </c>
+      <c r="B739">
+        <v>0.06376</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2">
+      <c r="A740" t="s">
+        <v>740</v>
+      </c>
+      <c r="B740">
+        <v>0.06221</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2">
+      <c r="A741" t="s">
+        <v>741</v>
+      </c>
+      <c r="B741">
+        <v>0.06358999999999999</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2">
+      <c r="A742" t="s">
+        <v>742</v>
+      </c>
+      <c r="B742">
+        <v>0.06163</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2">
+      <c r="A743" t="s">
+        <v>743</v>
+      </c>
+      <c r="B743">
+        <v>0.05711</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2">
+      <c r="A744" t="s">
+        <v>744</v>
+      </c>
+      <c r="B744">
+        <v>0.05484</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2">
+      <c r="A745" t="s">
+        <v>745</v>
+      </c>
+      <c r="B745">
+        <v>0.05477</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2">
+      <c r="A746" t="s">
+        <v>746</v>
+      </c>
+      <c r="B746">
+        <v>0.0548</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2">
+      <c r="A747" t="s">
+        <v>747</v>
+      </c>
+      <c r="B747">
+        <v>0.05449</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2">
+      <c r="A748" t="s">
+        <v>748</v>
+      </c>
+      <c r="B748">
+        <v>0.05414</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2">
+      <c r="A749" t="s">
+        <v>749</v>
+      </c>
+      <c r="B749">
+        <v>0.05414</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2">
+      <c r="A750" t="s">
+        <v>750</v>
+      </c>
+      <c r="B750">
+        <v>0.05479</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2">
+      <c r="A751" t="s">
+        <v>751</v>
+      </c>
+      <c r="B751">
+        <v>0.05476</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2">
+      <c r="A752" t="s">
+        <v>752</v>
+      </c>
+      <c r="B752">
+        <v>0.05491</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2">
+      <c r="A753" t="s">
+        <v>753</v>
+      </c>
+      <c r="B753">
+        <v>0.05494</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2">
+      <c r="A754" t="s">
+        <v>754</v>
+      </c>
+      <c r="B754">
+        <v>0.0545</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2">
+      <c r="A755" t="s">
+        <v>755</v>
+      </c>
+      <c r="B755">
+        <v>0.05311</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2">
+      <c r="A756" t="s">
+        <v>756</v>
+      </c>
+      <c r="B756">
+        <v>0.05444</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2">
+      <c r="A757" t="s">
+        <v>757</v>
+      </c>
+      <c r="B757">
+        <v>0.05774</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2">
+      <c r="A758" t="s">
+        <v>758</v>
+      </c>
+      <c r="B758">
+        <v>0.06092</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2">
+      <c r="A759" t="s">
+        <v>759</v>
+      </c>
+      <c r="B759">
+        <v>0.05985</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2">
+      <c r="A760" t="s">
+        <v>760</v>
+      </c>
+      <c r="B760">
+        <v>0.1237</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2">
+      <c r="A761" t="s">
+        <v>761</v>
+      </c>
+      <c r="B761">
+        <v>0.06531000000000001</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2">
+      <c r="A762" t="s">
+        <v>762</v>
+      </c>
+      <c r="B762">
+        <v>0.06571</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2">
+      <c r="A763" t="s">
+        <v>763</v>
+      </c>
+      <c r="B763">
+        <v>0.06525</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2">
+      <c r="A764" t="s">
+        <v>764</v>
+      </c>
+      <c r="B764">
+        <v>0.05987</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2">
+      <c r="A765" t="s">
+        <v>765</v>
+      </c>
+      <c r="B765">
+        <v>0.06673</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2">
+      <c r="A766" t="s">
+        <v>766</v>
+      </c>
+      <c r="B766">
+        <v>0.06163</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2">
+      <c r="A767" t="s">
+        <v>767</v>
+      </c>
+      <c r="B767">
+        <v>0.06414</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2">
+      <c r="A768" t="s">
+        <v>768</v>
+      </c>
+      <c r="B768">
+        <v>0.06346</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2">
+      <c r="A769" t="s">
+        <v>769</v>
+      </c>
+      <c r="B769">
+        <v>0.1624</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2">
+      <c r="A770" t="s">
+        <v>770</v>
+      </c>
+      <c r="B770">
+        <v>0.1603</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2">
+      <c r="A771" t="s">
+        <v>771</v>
+      </c>
+      <c r="B771">
+        <v>0.1586</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2">
+      <c r="A772" t="s">
+        <v>772</v>
+      </c>
+      <c r="B772">
+        <v>0.1599</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2">
+      <c r="A773" t="s">
+        <v>773</v>
+      </c>
+      <c r="B773">
+        <v>0.1565</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2">
+      <c r="A774" t="s">
+        <v>774</v>
+      </c>
+      <c r="B774">
+        <v>0.1583</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2">
+      <c r="A775" t="s">
+        <v>775</v>
+      </c>
+      <c r="B775">
+        <v>0.1601</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2">
+      <c r="A776" t="s">
+        <v>776</v>
+      </c>
+      <c r="B776">
+        <v>0.1603</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2">
+      <c r="A777" t="s">
+        <v>777</v>
+      </c>
+      <c r="B777">
+        <v>0.1651</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2">
+      <c r="A778" t="s">
+        <v>778</v>
+      </c>
+      <c r="B778">
+        <v>0.164</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2">
+      <c r="A779" t="s">
+        <v>779</v>
+      </c>
+      <c r="B779">
+        <v>0.1641</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2">
+      <c r="A780" t="s">
+        <v>780</v>
+      </c>
+      <c r="B780">
+        <v>0.1661</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2">
+      <c r="A781" t="s">
+        <v>781</v>
+      </c>
+      <c r="B781">
+        <v>0.1683</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2">
+      <c r="A782" t="s">
+        <v>782</v>
+      </c>
+      <c r="B782">
+        <v>0.1672</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2">
+      <c r="A783" t="s">
+        <v>783</v>
+      </c>
+      <c r="B783">
+        <v>0.1661</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2">
+      <c r="A784" t="s">
+        <v>784</v>
+      </c>
+      <c r="B784">
+        <v>0.1649</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2">
+      <c r="A785" t="s">
+        <v>785</v>
+      </c>
+      <c r="B785">
+        <v>0.1629</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2">
+      <c r="A786" t="s">
+        <v>786</v>
+      </c>
+      <c r="B786">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2">
+      <c r="A787" t="s">
+        <v>787</v>
+      </c>
+      <c r="B787">
+        <v>0.1601</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2">
+      <c r="A788" t="s">
+        <v>788</v>
+      </c>
+      <c r="B788">
+        <v>0.1619</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2">
+      <c r="A789" t="s">
+        <v>789</v>
+      </c>
+      <c r="B789">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2">
+      <c r="A790" t="s">
+        <v>790</v>
+      </c>
+      <c r="B790">
+        <v>0.1557</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2">
+      <c r="A791" t="s">
+        <v>791</v>
+      </c>
+      <c r="B791">
+        <v>0.1598</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2">
+      <c r="A792" t="s">
+        <v>792</v>
+      </c>
+      <c r="B792">
+        <v>0.1625</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2">
+      <c r="A793" t="s">
+        <v>793</v>
+      </c>
+      <c r="B793">
+        <v>0.1692</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2">
+      <c r="A794" t="s">
+        <v>794</v>
+      </c>
+      <c r="B794">
+        <v>0.1535</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2">
+      <c r="A795" t="s">
+        <v>795</v>
+      </c>
+      <c r="B795">
+        <v>0.1542</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2">
+      <c r="A796" t="s">
+        <v>796</v>
+      </c>
+      <c r="B796">
+        <v>0.1605</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2">
+      <c r="A797" t="s">
+        <v>797</v>
+      </c>
+      <c r="B797">
+        <v>0.1587</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2">
+      <c r="A798" t="s">
+        <v>798</v>
+      </c>
+      <c r="B798">
+        <v>0.1597</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2">
+      <c r="A799" t="s">
+        <v>799</v>
+      </c>
+      <c r="B799">
+        <v>0.1625</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2">
+      <c r="A800" t="s">
+        <v>800</v>
+      </c>
+      <c r="B800">
+        <v>0.1592</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2">
+      <c r="A801" t="s">
+        <v>801</v>
+      </c>
+      <c r="B801">
+        <v>0.1583</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2">
+      <c r="A802" t="s">
+        <v>802</v>
+      </c>
+      <c r="B802">
+        <v>0.1566</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2">
+      <c r="A803" t="s">
+        <v>803</v>
+      </c>
+      <c r="B803">
+        <v>0.1645</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2">
+      <c r="A804" t="s">
+        <v>804</v>
+      </c>
+      <c r="B804">
+        <v>0.1624</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2">
+      <c r="A805" t="s">
+        <v>805</v>
+      </c>
+      <c r="B805">
+        <v>0.1609</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2">
+      <c r="A806" t="s">
+        <v>806</v>
+      </c>
+      <c r="B806">
+        <v>0.1639</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2">
+      <c r="A807" t="s">
+        <v>807</v>
+      </c>
+      <c r="B807">
+        <v>0.06023</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2">
+      <c r="A808" t="s">
+        <v>808</v>
+      </c>
+      <c r="B808">
+        <v>0.05906</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2">
+      <c r="A809" t="s">
+        <v>809</v>
+      </c>
+      <c r="B809">
+        <v>0.0608</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2">
+      <c r="A810" t="s">
+        <v>810</v>
+      </c>
+      <c r="B810">
+        <v>0.06069</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2">
+      <c r="A811" t="s">
+        <v>811</v>
+      </c>
+      <c r="B811">
+        <v>0.06387</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2">
+      <c r="A812" t="s">
+        <v>812</v>
+      </c>
+      <c r="B812">
+        <v>0.06127</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2">
+      <c r="A813" t="s">
+        <v>813</v>
+      </c>
+      <c r="B813">
+        <v>0.06181</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2">
+      <c r="A814" t="s">
+        <v>814</v>
+      </c>
+      <c r="B814">
+        <v>0.06069</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2">
+      <c r="A815" t="s">
+        <v>815</v>
+      </c>
+      <c r="B815">
+        <v>0.06295000000000001</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2">
+      <c r="A816" t="s">
+        <v>816</v>
+      </c>
+      <c r="B816">
+        <v>0.06328</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2">
+      <c r="A817" t="s">
+        <v>817</v>
+      </c>
+      <c r="B817">
+        <v>0.06473</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2">
+      <c r="A818" t="s">
+        <v>818</v>
+      </c>
+      <c r="B818">
+        <v>0.06141</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2">
+      <c r="A819" t="s">
+        <v>819</v>
+      </c>
+      <c r="B819">
+        <v>0.0629</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2">
+      <c r="A820" t="s">
+        <v>820</v>
+      </c>
+      <c r="B820">
+        <v>0.0648</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2">
+      <c r="A821" t="s">
+        <v>821</v>
+      </c>
+      <c r="B821">
+        <v>0.0663</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2">
+      <c r="A822" t="s">
+        <v>822</v>
+      </c>
+      <c r="B822">
+        <v>0.06562</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2">
+      <c r="A823" t="s">
+        <v>823</v>
+      </c>
+      <c r="B823">
+        <v>0.06589</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2">
+      <c r="A824" t="s">
+        <v>824</v>
+      </c>
+      <c r="B824">
+        <v>0.06406000000000001</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2">
+      <c r="A825" t="s">
+        <v>825</v>
+      </c>
+      <c r="B825">
+        <v>0.0683</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2">
+      <c r="A826" t="s">
+        <v>826</v>
+      </c>
+      <c r="B826">
+        <v>0.06973</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2">
+      <c r="A827" t="s">
+        <v>827</v>
+      </c>
+      <c r="B827">
+        <v>0.07037</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2">
+      <c r="A828" t="s">
+        <v>828</v>
+      </c>
+      <c r="B828">
+        <v>0.06995</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2">
+      <c r="A829" t="s">
+        <v>829</v>
+      </c>
+      <c r="B829">
+        <v>0.07045999999999999</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2">
+      <c r="A830" t="s">
+        <v>830</v>
+      </c>
+      <c r="B830">
+        <v>0.07037</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2">
+      <c r="A831" t="s">
+        <v>831</v>
+      </c>
+      <c r="B831">
+        <v>0.07034</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2">
+      <c r="A832" t="s">
+        <v>832</v>
+      </c>
+      <c r="B832">
+        <v>0.06839000000000001</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2">
+      <c r="A833" t="s">
+        <v>833</v>
+      </c>
+      <c r="B833">
+        <v>0.07013</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2">
+      <c r="A834" t="s">
+        <v>834</v>
+      </c>
+      <c r="B834">
+        <v>0.0683</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2">
+      <c r="A835" t="s">
+        <v>835</v>
+      </c>
+      <c r="B835">
+        <v>0.06907000000000001</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2">
+      <c r="A836" t="s">
+        <v>836</v>
+      </c>
+      <c r="B836">
+        <v>0.0687</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2">
+      <c r="A837" t="s">
+        <v>837</v>
+      </c>
+      <c r="B837">
+        <v>0.06804</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2">
+      <c r="A838" t="s">
+        <v>838</v>
+      </c>
+      <c r="B838">
+        <v>0.06753000000000001</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2">
+      <c r="A839" t="s">
+        <v>839</v>
+      </c>
+      <c r="B839">
+        <v>0.06884</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2">
+      <c r="A840" t="s">
+        <v>840</v>
+      </c>
+      <c r="B840">
+        <v>0.067</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2">
+      <c r="A841" t="s">
+        <v>841</v>
+      </c>
+      <c r="B841">
+        <v>0.06623999999999999</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2">
+      <c r="A842" t="s">
+        <v>842</v>
+      </c>
+      <c r="B842">
+        <v>0.06471</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2">
+      <c r="A843" t="s">
+        <v>843</v>
+      </c>
+      <c r="B843">
+        <v>0.06762</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2">
+      <c r="A844" t="s">
+        <v>844</v>
+      </c>
+      <c r="B844">
+        <v>0.06902</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2">
+      <c r="A845" t="s">
+        <v>845</v>
+      </c>
+      <c r="B845">
+        <v>0.06864000000000001</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2">
+      <c r="A846" t="s">
+        <v>846</v>
+      </c>
+      <c r="B846">
+        <v>0.06813</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2">
+      <c r="A847" t="s">
+        <v>847</v>
+      </c>
+      <c r="B847">
+        <v>0.06730999999999999</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2">
+      <c r="A848" t="s">
+        <v>848</v>
+      </c>
+      <c r="B848">
+        <v>0.06471</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2">
+      <c r="A849" t="s">
+        <v>849</v>
+      </c>
+      <c r="B849">
+        <v>0.0648</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2">
+      <c r="A850" t="s">
+        <v>850</v>
+      </c>
+      <c r="B850">
+        <v>0.06486</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2">
+      <c r="A851" t="s">
+        <v>851</v>
+      </c>
+      <c r="B851">
+        <v>0.06698</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2">
+      <c r="A852" t="s">
+        <v>852</v>
+      </c>
+      <c r="B852">
+        <v>0.06501999999999999</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2">
+      <c r="A853" t="s">
+        <v>853</v>
+      </c>
+      <c r="B853">
+        <v>0.06376</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2">
+      <c r="A854" t="s">
+        <v>854</v>
+      </c>
+      <c r="B854">
+        <v>0.06489</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2">
+      <c r="A855" t="s">
+        <v>855</v>
+      </c>
+      <c r="B855">
+        <v>0.06111</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2">
+      <c r="A856" t="s">
+        <v>856</v>
+      </c>
+      <c r="B856">
+        <v>0.06301</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2">
+      <c r="A857" t="s">
+        <v>857</v>
+      </c>
+      <c r="B857">
+        <v>0.05564</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2">
+      <c r="A858" t="s">
+        <v>858</v>
+      </c>
+      <c r="B858">
+        <v>0.06385</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2">
+      <c r="A859" t="s">
+        <v>859</v>
+      </c>
+      <c r="B859">
+        <v>0.07623000000000001</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2">
+      <c r="A860" t="s">
+        <v>860</v>
+      </c>
+      <c r="B860">
+        <v>0.07613</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2">
+      <c r="A861" t="s">
+        <v>861</v>
+      </c>
+      <c r="B861">
+        <v>0.08094</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2">
+      <c r="A862" t="s">
+        <v>862</v>
+      </c>
+      <c r="B862">
+        <v>0.08185000000000001</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2">
+      <c r="A863" t="s">
+        <v>863</v>
+      </c>
+      <c r="B863">
+        <v>0.08160000000000001</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2">
+      <c r="A864" t="s">
+        <v>864</v>
+      </c>
+      <c r="B864">
+        <v>0.08111</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2">
+      <c r="A865" t="s">
+        <v>865</v>
+      </c>
+      <c r="B865">
+        <v>0.08433</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2">
+      <c r="A866" t="s">
+        <v>866</v>
+      </c>
+      <c r="B866">
+        <v>0.08348</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2">
+      <c r="A867" t="s">
+        <v>867</v>
+      </c>
+      <c r="B867">
+        <v>0.08322</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2">
+      <c r="A868" t="s">
+        <v>868</v>
+      </c>
+      <c r="B868">
+        <v>0.08055</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2">
+      <c r="A869" t="s">
+        <v>869</v>
+      </c>
+      <c r="B869">
+        <v>0.08079</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2">
+      <c r="A870" t="s">
+        <v>870</v>
+      </c>
+      <c r="B870">
+        <v>0.08225</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2">
+      <c r="A871" t="s">
+        <v>871</v>
+      </c>
+      <c r="B871">
+        <v>0.08468000000000001</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2">
+      <c r="A872" t="s">
+        <v>872</v>
+      </c>
+      <c r="B872">
+        <v>0.07814</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2">
+      <c r="A873" t="s">
+        <v>873</v>
+      </c>
+      <c r="B873">
+        <v>0.07124</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2">
+      <c r="A874" t="s">
+        <v>874</v>
+      </c>
+      <c r="B874">
+        <v>0.07237</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2">
+      <c r="A875" t="s">
+        <v>875</v>
+      </c>
+      <c r="B875">
+        <v>0.07240000000000001</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2">
+      <c r="A876" t="s">
+        <v>876</v>
+      </c>
+      <c r="B876">
+        <v>0.07475</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2">
+      <c r="A877" t="s">
+        <v>877</v>
+      </c>
+      <c r="B877">
+        <v>0.07693</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2">
+      <c r="A878" t="s">
+        <v>878</v>
+      </c>
+      <c r="B878">
+        <v>0.07277</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2">
+      <c r="A879" t="s">
+        <v>879</v>
+      </c>
+      <c r="B879">
+        <v>0.07451000000000001</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2">
+      <c r="A880" t="s">
+        <v>880</v>
+      </c>
+      <c r="B880">
+        <v>0.06895</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2">
+      <c r="A881" t="s">
+        <v>881</v>
+      </c>
+      <c r="B881">
+        <v>0.06263000000000001</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2">
+      <c r="A882" t="s">
+        <v>882</v>
+      </c>
+      <c r="B882">
+        <v>0.07113</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2">
+      <c r="A883" t="s">
+        <v>883</v>
+      </c>
+      <c r="B883">
+        <v>0.06261</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2">
+      <c r="A884" t="s">
+        <v>884</v>
+      </c>
+      <c r="B884">
+        <v>0.06308</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2">
+      <c r="A885" t="s">
+        <v>885</v>
+      </c>
+      <c r="B885">
+        <v>0.07319000000000001</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2">
+      <c r="A886" t="s">
+        <v>886</v>
+      </c>
+      <c r="B886">
+        <v>0.07389</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2">
+      <c r="A887" t="s">
+        <v>887</v>
+      </c>
+      <c r="B887">
+        <v>0.07334</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2">
+      <c r="A888" t="s">
+        <v>888</v>
+      </c>
+      <c r="B888">
+        <v>0.06884999999999999</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2">
+      <c r="A889" t="s">
+        <v>889</v>
+      </c>
+      <c r="B889">
+        <v>0.06908</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2">
+      <c r="A890" t="s">
+        <v>890</v>
+      </c>
+      <c r="B890">
+        <v>0.06565</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2">
+      <c r="A891" t="s">
+        <v>891</v>
+      </c>
+      <c r="B891">
+        <v>0.06109</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2">
+      <c r="A892" t="s">
+        <v>892</v>
+      </c>
+      <c r="B892">
+        <v>0.06082</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2">
+      <c r="A893" t="s">
+        <v>893</v>
+      </c>
+      <c r="B893">
+        <v>0.06058</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2">
+      <c r="A894" t="s">
+        <v>894</v>
+      </c>
+      <c r="B894">
+        <v>0.05888</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2">
+      <c r="A895" t="s">
+        <v>895</v>
+      </c>
+      <c r="B895">
+        <v>0.06153</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2">
+      <c r="A896" t="s">
+        <v>896</v>
+      </c>
+      <c r="B896">
+        <v>0.0608</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2">
+      <c r="A897" t="s">
+        <v>897</v>
+      </c>
+      <c r="B897">
+        <v>0.05955</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2">
+      <c r="A898" t="s">
+        <v>898</v>
+      </c>
+      <c r="B898">
+        <v>0.06850000000000001</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2">
+      <c r="A899" t="s">
+        <v>899</v>
+      </c>
+      <c r="B899">
+        <v>0.06443</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2">
+      <c r="A900" t="s">
+        <v>900</v>
+      </c>
+      <c r="B900">
+        <v>0.05852</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2">
+      <c r="A901" t="s">
+        <v>901</v>
+      </c>
+      <c r="B901">
+        <v>0.05681</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2">
+      <c r="A902" t="s">
+        <v>902</v>
+      </c>
+      <c r="B902">
+        <v>0.094</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2">
+      <c r="A903" t="s">
+        <v>903</v>
+      </c>
+      <c r="B903">
+        <v>0.09689</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2">
+      <c r="A904" t="s">
+        <v>904</v>
+      </c>
+      <c r="B904">
+        <v>0.09068</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2">
+      <c r="A905" t="s">
+        <v>905</v>
+      </c>
+      <c r="B905">
+        <v>0.1037</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2">
+      <c r="A906" t="s">
+        <v>906</v>
+      </c>
+      <c r="B906">
+        <v>0.1161</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2">
+      <c r="A907" t="s">
+        <v>907</v>
+      </c>
+      <c r="B907">
+        <v>0.1047</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2">
+      <c r="A908" t="s">
+        <v>908</v>
+      </c>
+      <c r="B908">
+        <v>0.09536</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2">
+      <c r="A909" t="s">
+        <v>909</v>
+      </c>
+      <c r="B909">
+        <v>0.08534</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2">
+      <c r="A910" t="s">
+        <v>910</v>
+      </c>
+      <c r="B910">
+        <v>0.08474</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2">
+      <c r="A911" t="s">
+        <v>911</v>
+      </c>
+      <c r="B911">
+        <v>0.08525000000000001</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2">
+      <c r="A912" t="s">
+        <v>912</v>
+      </c>
+      <c r="B912">
+        <v>0.09295</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2">
+      <c r="A913" t="s">
+        <v>913</v>
+      </c>
+      <c r="B913">
+        <v>0.08408</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2">
+      <c r="A914" t="s">
+        <v>914</v>
+      </c>
+      <c r="B914">
+        <v>0.05618</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2">
+      <c r="A915" t="s">
+        <v>915</v>
+      </c>
+      <c r="B915">
+        <v>0.06236</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2">
+      <c r="A916" t="s">
+        <v>916</v>
+      </c>
+      <c r="B916">
+        <v>0.05398</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2">
+      <c r="A917" t="s">
+        <v>917</v>
+      </c>
+      <c r="B917">
+        <v>0.06863</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2">
+      <c r="A918" t="s">
+        <v>918</v>
+      </c>
+      <c r="B918">
+        <v>0.06918000000000001</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2">
+      <c r="A919" t="s">
+        <v>919</v>
+      </c>
+      <c r="B919">
+        <v>0.07195</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2">
+      <c r="A920" t="s">
+        <v>920</v>
+      </c>
+      <c r="B920">
+        <v>0.08217000000000001</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2">
+      <c r="A921" t="s">
+        <v>921</v>
+      </c>
+      <c r="B921">
+        <v>0.07207</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2">
+      <c r="A922" t="s">
+        <v>922</v>
+      </c>
+      <c r="B922">
+        <v>0.07933</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2">
+      <c r="A923" t="s">
+        <v>923</v>
+      </c>
+      <c r="B923">
+        <v>0.07722</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2">
+      <c r="A924" t="s">
+        <v>924</v>
+      </c>
+      <c r="B924">
+        <v>0.06304</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2">
+      <c r="A925" t="s">
+        <v>925</v>
+      </c>
+      <c r="B925">
+        <v>0.07790999999999999</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2">
+      <c r="A926" t="s">
+        <v>926</v>
+      </c>
+      <c r="B926">
+        <v>0.1165</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2">
+      <c r="A927" t="s">
+        <v>927</v>
+      </c>
+      <c r="B927">
+        <v>0.119</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2">
+      <c r="A928" t="s">
+        <v>928</v>
+      </c>
+      <c r="B928">
+        <v>0.1479</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2">
+      <c r="A929" t="s">
+        <v>929</v>
+      </c>
+      <c r="B929">
+        <v>0.1521</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2">
+      <c r="A930" t="s">
+        <v>930</v>
+      </c>
+      <c r="B930">
+        <v>0.1319</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2">
+      <c r="A931" t="s">
+        <v>931</v>
+      </c>
+      <c r="B931">
+        <v>0.131</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2">
+      <c r="A932" t="s">
+        <v>932</v>
+      </c>
+      <c r="B932">
+        <v>0.1258</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2">
+      <c r="A933" t="s">
+        <v>933</v>
+      </c>
+      <c r="B933">
+        <v>0.1174</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2">
+      <c r="A934" t="s">
+        <v>934</v>
+      </c>
+      <c r="B934">
+        <v>0.1018</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2">
+      <c r="A935" t="s">
+        <v>935</v>
+      </c>
+      <c r="B935">
+        <v>0.1091</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2">
+      <c r="A936" t="s">
+        <v>936</v>
+      </c>
+      <c r="B936">
+        <v>0.1102</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2">
+      <c r="A937" t="s">
+        <v>937</v>
+      </c>
+      <c r="B937">
+        <v>0.1333</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2">
+      <c r="A938" t="s">
+        <v>938</v>
+      </c>
+      <c r="B938">
+        <v>0.1301</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2">
+      <c r="A939" t="s">
+        <v>939</v>
+      </c>
+      <c r="B939">
+        <v>0.1554</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2">
+      <c r="A940" t="s">
+        <v>940</v>
+      </c>
+      <c r="B940">
+        <v>0.1613</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2">
+      <c r="A941" t="s">
+        <v>941</v>
+      </c>
+      <c r="B941">
+        <v>0.1644</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2">
+      <c r="A942" t="s">
+        <v>942</v>
+      </c>
+      <c r="B942">
+        <v>0.1404</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2">
+      <c r="A943" t="s">
+        <v>943</v>
+      </c>
+      <c r="B943">
+        <v>0.1463</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2">
+      <c r="A944" t="s">
+        <v>944</v>
+      </c>
+      <c r="B944">
+        <v>0.1289</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2">
+      <c r="A945" t="s">
+        <v>945</v>
+      </c>
+      <c r="B945">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2">
+      <c r="A946" t="s">
+        <v>946</v>
+      </c>
+      <c r="B946">
+        <v>0.1262</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2">
+      <c r="A947" t="s">
+        <v>947</v>
+      </c>
+      <c r="B947">
+        <v>0.1158</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2">
+      <c r="A948" t="s">
+        <v>948</v>
+      </c>
+      <c r="B948">
+        <v>0.1236</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2">
+      <c r="A949" t="s">
+        <v>949</v>
+      </c>
+      <c r="B949">
+        <v>0.1104</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2">
+      <c r="A950" t="s">
+        <v>950</v>
+      </c>
+      <c r="B950">
+        <v>0.1243</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2">
+      <c r="A951" t="s">
+        <v>951</v>
+      </c>
+      <c r="B951">
+        <v>0.1368</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2">
+      <c r="A952" t="s">
+        <v>952</v>
+      </c>
+      <c r="B952">
+        <v>0.1277</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2">
+      <c r="A953" t="s">
+        <v>953</v>
+      </c>
+      <c r="B953">
+        <v>0.1013</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2">
+      <c r="A954" t="s">
+        <v>954</v>
+      </c>
+      <c r="B954">
+        <v>0.09234000000000001</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2">
+      <c r="A955" t="s">
+        <v>955</v>
+      </c>
+      <c r="B955">
+        <v>0.08544</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2">
+      <c r="A956" t="s">
+        <v>956</v>
+      </c>
+      <c r="B956">
+        <v>0.09304</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2">
+      <c r="A957" t="s">
+        <v>957</v>
+      </c>
+      <c r="B957">
+        <v>0.06598999999999999</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2">
+      <c r="A958" t="s">
+        <v>958</v>
+      </c>
+      <c r="B958">
+        <v>0.06361</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2">
+      <c r="A959" t="s">
+        <v>959</v>
+      </c>
+      <c r="B959">
+        <v>0.05547</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2">
+      <c r="A960" t="s">
+        <v>960</v>
+      </c>
+      <c r="B960">
+        <v>0.05584</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2">
+      <c r="A961" t="s">
+        <v>961</v>
+      </c>
+      <c r="B961">
+        <v>0.05868</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2">
+      <c r="A962" t="s">
+        <v>962</v>
+      </c>
+      <c r="B962">
+        <v>0.0594</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2">
+      <c r="A963" t="s">
+        <v>963</v>
+      </c>
+      <c r="B963">
+        <v>0.06327000000000001</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2">
+      <c r="A964" t="s">
+        <v>964</v>
+      </c>
+      <c r="B964">
+        <v>0.06077</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2">
+      <c r="A965" t="s">
+        <v>965</v>
+      </c>
+      <c r="B965">
+        <v>0.05077</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2">
+      <c r="A966" t="s">
+        <v>966</v>
+      </c>
+      <c r="B966">
+        <v>0.05111</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2">
+      <c r="A967" t="s">
+        <v>967</v>
+      </c>
+      <c r="B967">
+        <v>0.04998</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2">
+      <c r="A968" t="s">
+        <v>968</v>
+      </c>
+      <c r="B968">
+        <v>0.05154</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2">
+      <c r="A969" t="s">
+        <v>969</v>
+      </c>
+      <c r="B969">
+        <v>0.05159</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2">
+      <c r="A970" t="s">
+        <v>970</v>
+      </c>
+      <c r="B970">
+        <v>0.05299</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2">
+      <c r="A971" t="s">
+        <v>971</v>
+      </c>
+      <c r="B971">
+        <v>0.05021</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2">
+      <c r="A972" t="s">
+        <v>972</v>
+      </c>
+      <c r="B972">
+        <v>0.05145</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2">
+      <c r="A973" t="s">
+        <v>973</v>
+      </c>
+      <c r="B973">
+        <v>0.04691</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2">
+      <c r="A974" t="s">
+        <v>974</v>
+      </c>
+      <c r="B974">
+        <v>0.04661</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2">
+      <c r="A975" t="s">
+        <v>975</v>
+      </c>
+      <c r="B975">
+        <v>0.04521</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2">
+      <c r="A976" t="s">
+        <v>976</v>
+      </c>
+      <c r="B976">
+        <v>0.04807</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2">
+      <c r="A977" t="s">
+        <v>977</v>
+      </c>
+      <c r="B977">
+        <v>0.04505</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2">
+      <c r="A978" t="s">
+        <v>978</v>
+      </c>
+      <c r="B978">
+        <v>0.05436</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2">
+      <c r="A979" t="s">
+        <v>979</v>
+      </c>
+      <c r="B979">
+        <v>0.05941</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2">
+      <c r="A980" t="s">
+        <v>980</v>
+      </c>
+      <c r="B980">
+        <v>0.05777</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2">
+      <c r="A981" t="s">
+        <v>981</v>
+      </c>
+      <c r="B981">
+        <v>0.06061</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2">
+      <c r="A982" t="s">
+        <v>982</v>
+      </c>
+      <c r="B982">
+        <v>0.05257</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2">
+      <c r="A983" t="s">
+        <v>983</v>
+      </c>
+      <c r="B983">
+        <v>0.05209</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2">
+      <c r="A984" t="s">
+        <v>984</v>
+      </c>
+      <c r="B984">
+        <v>0.05085</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2">
+      <c r="A985" t="s">
+        <v>985</v>
+      </c>
+      <c r="B985">
+        <v>0.0553</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2">
+      <c r="A986" t="s">
+        <v>986</v>
+      </c>
+      <c r="B986">
+        <v>0.03049</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2">
+      <c r="A987" t="s">
+        <v>987</v>
+      </c>
+      <c r="B987">
+        <v>0.03077</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2">
+      <c r="A988" t="s">
+        <v>988</v>
+      </c>
+      <c r="B988">
+        <v>0.02902</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2">
+      <c r="A989" t="s">
+        <v>989</v>
+      </c>
+      <c r="B989">
+        <v>0.02918</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2">
+      <c r="A990" t="s">
+        <v>990</v>
+      </c>
+      <c r="B990">
+        <v>0.07679999999999999</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2">
+      <c r="A991" t="s">
+        <v>991</v>
+      </c>
+      <c r="B991">
+        <v>0.07674</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2">
+      <c r="A992" t="s">
+        <v>992</v>
+      </c>
+      <c r="B992">
+        <v>0.1768</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2">
+      <c r="A993" t="s">
+        <v>993</v>
+      </c>
+      <c r="B993">
+        <v>0.06626</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2">
+      <c r="A994" t="s">
+        <v>994</v>
+      </c>
+      <c r="B994">
+        <v>0.136</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/token/TRX.xlsx
+++ b/data/token/TRX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="1022">
   <si>
     <t>Date</t>
   </si>
@@ -2999,6 +2999,87 @@
   </si>
   <si>
     <t>2024-03-10</t>
+  </si>
+  <si>
+    <t>2024-11-15</t>
+  </si>
+  <si>
+    <t>2023-07-09</t>
+  </si>
+  <si>
+    <t>2023-08-13</t>
+  </si>
+  <si>
+    <t>2023-06-27</t>
+  </si>
+  <si>
+    <t>2023-03-14</t>
+  </si>
+  <si>
+    <t>2023-03-09</t>
+  </si>
+  <si>
+    <t>2023-03-07</t>
+  </si>
+  <si>
+    <t>2023-03-06</t>
+  </si>
+  <si>
+    <t>2023-03-05</t>
+  </si>
+  <si>
+    <t>2023-03-04</t>
+  </si>
+  <si>
+    <t>2023-02-27</t>
+  </si>
+  <si>
+    <t>2023-02-24</t>
+  </si>
+  <si>
+    <t>2023-02-23</t>
+  </si>
+  <si>
+    <t>2023-02-16</t>
+  </si>
+  <si>
+    <t>2023-02-05</t>
+  </si>
+  <si>
+    <t>2022-12-13</t>
+  </si>
+  <si>
+    <t>2022-12-11</t>
+  </si>
+  <si>
+    <t>2022-12-07</t>
+  </si>
+  <si>
+    <t>2024-11-16</t>
+  </si>
+  <si>
+    <t>2024-11-17</t>
+  </si>
+  <si>
+    <t>2024-11-18</t>
+  </si>
+  <si>
+    <t>2024-11-20</t>
+  </si>
+  <si>
+    <t>2024-11-19</t>
+  </si>
+  <si>
+    <t>2024-11-21</t>
+  </si>
+  <si>
+    <t>2024-11-22</t>
+  </si>
+  <si>
+    <t>2024-11-23</t>
+  </si>
+  <si>
+    <t>2024-11-24</t>
   </si>
 </sst>
 </file>
@@ -3356,7 +3437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B994"/>
+  <dimension ref="A1:B1021"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11314,6 +11395,222 @@
         <v>0.136</v>
       </c>
     </row>
+    <row r="995" spans="1:2">
+      <c r="A995" t="s">
+        <v>995</v>
+      </c>
+      <c r="B995">
+        <v>0.1764</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2">
+      <c r="A996" t="s">
+        <v>996</v>
+      </c>
+      <c r="B996">
+        <v>0.08015</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2">
+      <c r="A997" t="s">
+        <v>997</v>
+      </c>
+      <c r="B997">
+        <v>0.07742</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2">
+      <c r="A998" t="s">
+        <v>998</v>
+      </c>
+      <c r="B998">
+        <v>0.07378</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2">
+      <c r="A999" t="s">
+        <v>999</v>
+      </c>
+      <c r="B999">
+        <v>0.06716</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2">
+      <c r="A1000" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B1000">
+        <v>0.06533</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2">
+      <c r="A1001" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B1001">
+        <v>0.0674</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2">
+      <c r="A1002" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B1002">
+        <v>0.06723</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2">
+      <c r="A1003" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B1003">
+        <v>0.06673999999999999</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2">
+      <c r="A1004" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B1004">
+        <v>0.06714000000000001</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2">
+      <c r="A1005" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B1005">
+        <v>0.06955</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2">
+      <c r="A1006" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B1006">
+        <v>0.06956</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2">
+      <c r="A1007" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B1007">
+        <v>0.06943000000000001</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2">
+      <c r="A1008" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B1008">
+        <v>0.07087</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2">
+      <c r="A1009" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B1009">
+        <v>0.06381000000000001</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2">
+      <c r="A1010" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B1010">
+        <v>0.05353</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2">
+      <c r="A1011" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B1011">
+        <v>0.05481</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2">
+      <c r="A1012" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B1012">
+        <v>0.05365</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2">
+      <c r="A1013" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B1013">
+        <v>0.1908</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2">
+      <c r="A1014" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B1014">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2">
+      <c r="A1015" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B1015">
+        <v>0.1992</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2">
+      <c r="A1016" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B1016">
+        <v>0.1994</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:2">
+      <c r="A1017" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B1017">
+        <v>0.202</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:2">
+      <c r="A1018" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B1018">
+        <v>0.1947</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2">
+      <c r="A1019" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B1019">
+        <v>0.1986</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:2">
+      <c r="A1020" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B1020">
+        <v>0.2046</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:2">
+      <c r="A1021" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B1021">
+        <v>0.2119</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
